--- a/Supplementary Files/F1.xlsx
+++ b/Supplementary Files/F1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t xml:space="preserve">Category </t>
   </si>
@@ -94,66 +94,77 @@
     <t>O.Size (B)</t>
   </si>
   <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t>[1] K. Clark, I. Karsch-Mizrachi, D. J. Lipman, J. Ostell, and E. W. Sayers, “Genbank,” Nucleic acids research, vol. 44, no. D1, pp. D67–D72, 2016.</t>
-  </si>
-  <si>
-    <t>[2] R. McVeigh, B. Rajput, B. Robbertse, B. Smith-White, D. Ako-Adjei et al., “Reference sequence (refseq) database at ncbi: current status, taxonomic expansion, and functional annotation,” Nucleic acids research,
-vol. 44, no. D1, pp. D733–D745, 2016.</t>
-  </si>
-  <si>
-    <t>[3] C. Quast, E. Pruesse, P. Yilmaz, J. Gerken, T. Schweer, P. Yarza, J. Peplies, and F. O. Gl¨ockner, “The SILVA
-ribosomal RNA gene database project: improved data processing and web-based tools,” Nucleic Acids Research, vol. 41,
-no. D1, pp. D590–D596, Nov. 2012. [Online]. Available: http://academic.oup.com/nar/article/41/D1/D590/1069277/The-
-SILVA-ribosomal-RNA-gene-database-project</t>
-  </si>
-  <si>
-    <t>Gordonia phage GAL1 [2]</t>
-  </si>
-  <si>
-    <t>WS1 bacterium JGI 0000059-K21 [1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astrammina rara [1]  </t>
-  </si>
-  <si>
-    <t>Nosema ceranae [1]</t>
-  </si>
-  <si>
-    <t>Cryptosporidium parvum Iowa II [1]</t>
-  </si>
-  <si>
-    <t>Spironucleus salmonicida [1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tieghemostelium lacteum [1] </t>
-  </si>
-  <si>
-    <t>Fusarium graminearum PH-1 [2]</t>
-  </si>
-  <si>
-    <t>Salpingoeca rosetta [1]</t>
-  </si>
-  <si>
-    <t>Chondrus crispus [1]</t>
-  </si>
-  <si>
-    <t>Kappaphycus alvarezii [1]</t>
-  </si>
-  <si>
-    <t>Strongylocentrotus purpuratus [2]</t>
-  </si>
-  <si>
-    <t>Datasets Description</t>
+    <t>Gordonia phage GAL1</t>
+  </si>
+  <si>
+    <t>WS1 bacterium JGI 0000059-K21</t>
+  </si>
+  <si>
+    <t>Astrammina rara</t>
+  </si>
+  <si>
+    <t>Nosema ceranae</t>
+  </si>
+  <si>
+    <t>Cryptosporidium parvum Iowa II</t>
+  </si>
+  <si>
+    <t>Spironucleus salmonicida</t>
+  </si>
+  <si>
+    <t>Tieghemostelium lacteum</t>
+  </si>
+  <si>
+    <t>Fusarium graminearum PH-1</t>
+  </si>
+  <si>
+    <t>Salpingoeca rosetta</t>
+  </si>
+  <si>
+    <t>Chondrus crispus</t>
+  </si>
+  <si>
+    <t>Kappaphycus alvarezii</t>
+  </si>
+  <si>
+    <t>Strongylocentrotus purpuratus</t>
+  </si>
+  <si>
+    <t>Datasets</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://ftp.arb-silva.de/release 132/Exports/SILVA 132 LSURef tax silva.fasta.gz</t>
+  </si>
+  <si>
+    <t>19/08/2022</t>
+  </si>
+  <si>
+    <t>https://ftp.arb-silva.de/release 132/Exports/SILVA 132 SSURef Nr99 tax silva.fasta.gz</t>
+  </si>
+  <si>
+    <t>DNA Datasets Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILVA 132 LSURef </t>
+  </si>
+  <si>
+    <t>SILVA 132 SSURef Nr99</t>
+  </si>
+  <si>
+    <t>RNA Datasets Description</t>
+  </si>
+  <si>
+    <t>Accessed Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +206,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,10 +250,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -257,18 +277,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -278,8 +289,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,55 +630,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="A1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -642,7 +695,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -657,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -672,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -687,7 +740,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
@@ -702,7 +755,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -717,7 +770,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -732,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -747,7 +800,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -762,7 +815,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -777,7 +830,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -795,7 +848,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
@@ -803,73 +856,134 @@
       <c r="D15" s="2">
         <v>1007867539</v>
       </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="10"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="14">
+        <v>610296406</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="17">
+        <v>1108994702</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A19:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
+  <mergeCells count="12">
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C18:H19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C20" r:id="rId1"/>
+    <hyperlink ref="C21" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>